--- a/excel problems.xlsx
+++ b/excel problems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="School supplies" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Ball Point Pens</t>
   </si>
@@ -79,15 +79,63 @@
   <si>
     <t>Tim</t>
   </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Collar</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Bowl</t>
+  </si>
+  <si>
+    <t>Leash</t>
+  </si>
+  <si>
+    <t>Initial Toal</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Litter</t>
+  </si>
+  <si>
+    <t>Treats</t>
+  </si>
+  <si>
+    <t>SubTotal</t>
+  </si>
+  <si>
+    <t>Monthly Total</t>
+  </si>
+  <si>
+    <t>One Year Costs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +149,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +168,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,14 +202,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -193,7 +275,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -283,7 +364,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -348,11 +428,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1166922144"/>
-        <c:axId val="1166916704"/>
+        <c:axId val="279164368"/>
+        <c:axId val="279168176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1166922144"/>
+        <c:axId val="279164368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,7 +475,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1166916704"/>
+        <c:crossAx val="279168176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -403,7 +483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1166916704"/>
+        <c:axId val="279168176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,7 +534,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1166922144"/>
+        <c:crossAx val="279164368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -562,7 +642,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -677,7 +756,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -742,11 +820,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1009875504"/>
-        <c:axId val="1166917792"/>
+        <c:axId val="279159472"/>
+        <c:axId val="279171984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1009875504"/>
+        <c:axId val="279159472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -789,7 +867,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1166917792"/>
+        <c:crossAx val="279171984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -797,7 +875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1166917792"/>
+        <c:axId val="279171984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +926,296 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1009875504"/>
+        <c:crossAx val="279159472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cat or Dog'!$B$17:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Dog</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cat or Dog'!$B$18:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>559.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="279167088"/>
+        <c:axId val="279168720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="279167088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279168720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="279168720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279167088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -977,6 +1344,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1481,6 +1888,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2040,6 +2950,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2337,7 +3282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -3100,7 +4045,7 @@
         <v>71.499999999999986</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" ref="M19:N19" si="7">SUM(N3:N17)</f>
+        <f t="shared" ref="N19" si="7">SUM(N3:N17)</f>
         <v>108.45</v>
       </c>
     </row>
@@ -3112,12 +4057,184 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="13">
+        <v>50</v>
+      </c>
+      <c r="C4" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="C6" s="13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="13">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="13">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="13">
+        <f>SUM(B3:B8)</f>
+        <v>68</v>
+      </c>
+      <c r="C9" s="13">
+        <f>SUM(C3:C8)</f>
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="14">
+        <v>21</v>
+      </c>
+      <c r="C12" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="14">
+        <f>SUM(B12:B14)</f>
+        <v>24</v>
+      </c>
+      <c r="C15" s="14">
+        <f>SUM(C12:C14)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="14">
+        <f>B15*2</f>
+        <v>48</v>
+      </c>
+      <c r="C16" s="14">
+        <f>C15*2</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="12">
+        <f>B16*12+B9</f>
+        <v>644</v>
+      </c>
+      <c r="C18" s="12">
+        <f>C16*12+C9</f>
+        <v>559.5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel problems.xlsx
+++ b/excel problems.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="School supplies" sheetId="1" r:id="rId1"/>
     <sheet name="Cat or Dog" sheetId="2" r:id="rId2"/>
+    <sheet name="Three Vacations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
   <si>
     <t>Ball Point Pens</t>
   </si>
@@ -127,6 +128,93 @@
   <si>
     <t>One Year Costs</t>
   </si>
+  <si>
+    <t>susan</t>
+  </si>
+  <si>
+    <t>Orlando theme parks</t>
+  </si>
+  <si>
+    <t>Miami cruise</t>
+  </si>
+  <si>
+    <t>Chicago museum</t>
+  </si>
+  <si>
+    <t>Per person expenses</t>
+  </si>
+  <si>
+    <t>Air Fare</t>
+  </si>
+  <si>
+    <t>Natural History</t>
+  </si>
+  <si>
+    <t>Chicago Museum of Art</t>
+  </si>
+  <si>
+    <t>Science Museum</t>
+  </si>
+  <si>
+    <t>Museum of Broadcast history</t>
+  </si>
+  <si>
+    <t>Disneyland</t>
+  </si>
+  <si>
+    <t>Universal Studios</t>
+  </si>
+  <si>
+    <t>Sea World</t>
+  </si>
+  <si>
+    <t>Busch Gardens</t>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
+    <t>Subtotal of tickets (per person)</t>
+  </si>
+  <si>
+    <t>Number  of people in the group</t>
+  </si>
+  <si>
+    <t>Total costs of tickets</t>
+  </si>
+  <si>
+    <t>Hotel Expenses</t>
+  </si>
+  <si>
+    <t>Hotel cost per night</t>
+  </si>
+  <si>
+    <t>Number of nights</t>
+  </si>
+  <si>
+    <t>Hotel total</t>
+  </si>
+  <si>
+    <t>Foods Expenses</t>
+  </si>
+  <si>
+    <t>Food Total</t>
+  </si>
+  <si>
+    <t>Car expenses</t>
+  </si>
+  <si>
+    <t>Car total</t>
+  </si>
+  <si>
+    <t>Food cost per person per day</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Car rental per day</t>
+  </si>
 </sst>
 </file>
 
@@ -158,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +277,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -202,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -218,6 +330,19 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -275,6 +400,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -364,6 +490,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -428,11 +555,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="279164368"/>
-        <c:axId val="279168176"/>
+        <c:axId val="-1431297280"/>
+        <c:axId val="-1431293472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="279164368"/>
+        <c:axId val="-1431297280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +602,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279168176"/>
+        <c:crossAx val="-1431293472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279168176"/>
+        <c:axId val="-1431293472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +661,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279164368"/>
+        <c:crossAx val="-1431297280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -642,6 +769,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -756,6 +884,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -820,11 +949,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="279159472"/>
-        <c:axId val="279171984"/>
+        <c:axId val="-1431300544"/>
+        <c:axId val="-1431295104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="279159472"/>
+        <c:axId val="-1431300544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,7 +996,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279171984"/>
+        <c:crossAx val="-1431295104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -875,7 +1004,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279171984"/>
+        <c:axId val="-1431295104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +1055,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279159472"/>
+        <c:crossAx val="-1431300544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1109,11 +1238,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="279167088"/>
-        <c:axId val="279168720"/>
+        <c:axId val="-1431296192"/>
+        <c:axId val="-1431292384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="279167088"/>
+        <c:axId val="-1431296192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1285,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279168720"/>
+        <c:crossAx val="-1431292384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1164,7 +1293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279168720"/>
+        <c:axId val="-1431292384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,7 +1344,655 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279167088"/>
+        <c:crossAx val="-1431296192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Expenses for Susan and her husband</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Three Vacations'!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Chicago museum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Orlando theme parks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Miami cruise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Three Vacations'!$C$33:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1810</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1484612368"/>
+        <c:axId val="-1484614000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1484612368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1484614000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1484614000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1484612368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Expenses for Tim and his family</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Three Vacations'!$J$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Chicago museum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Orlando theme parks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Miami cruise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Three Vacations'!$J$33:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1484604208"/>
+        <c:axId val="-1484603120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1484604208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1484603120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1484603120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1484604208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1384,6 +2161,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2391,6 +3248,1012 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2985,6 +4848,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3280,6 +5208,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A2:N19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -4057,9 +5988,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A2:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -4237,4 +6171,779 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="H3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="18">
+        <v>280</v>
+      </c>
+      <c r="D4" s="18">
+        <v>100</v>
+      </c>
+      <c r="E4" s="18">
+        <v>350</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="18">
+        <v>280</v>
+      </c>
+      <c r="K4" s="18">
+        <v>100</v>
+      </c>
+      <c r="L4" s="18">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="18">
+        <v>18</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="18">
+        <v>18</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="18">
+        <v>25</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="18">
+        <v>25</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="18">
+        <v>15</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="18">
+        <v>15</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="18">
+        <v>9</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="18">
+        <v>9</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18">
+        <v>99</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <v>99</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <v>95</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <v>95</v>
+      </c>
+      <c r="L10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="18">
+        <v>85</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>85</v>
+      </c>
+      <c r="L11" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="18">
+        <v>85</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <v>85</v>
+      </c>
+      <c r="L12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>555</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
+      <c r="L13" s="18">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="19">
+        <f>SUM(C4:C13)</f>
+        <v>347</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" ref="D15:E15" si="0">SUM(D4:D13)</f>
+        <v>464</v>
+      </c>
+      <c r="E15" s="19">
+        <f t="shared" si="0"/>
+        <v>905</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="19">
+        <f>SUM(J4:J13)</f>
+        <v>347</v>
+      </c>
+      <c r="K15" s="19">
+        <f t="shared" ref="K15:L15" si="1">SUM(K4:K13)</f>
+        <v>464</v>
+      </c>
+      <c r="L15" s="19">
+        <f t="shared" si="1"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17">
+        <v>2</v>
+      </c>
+      <c r="D16" s="17">
+        <v>2</v>
+      </c>
+      <c r="E16" s="17">
+        <v>2</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17">
+        <v>4</v>
+      </c>
+      <c r="K16" s="17">
+        <v>4</v>
+      </c>
+      <c r="L16" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="19">
+        <f>C15*C16</f>
+        <v>694</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" ref="D17:E17" si="2">D15*D16</f>
+        <v>928</v>
+      </c>
+      <c r="E17" s="19">
+        <f t="shared" si="2"/>
+        <v>1810</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="19">
+        <f>J15*J16</f>
+        <v>1388</v>
+      </c>
+      <c r="K17" s="19">
+        <f t="shared" ref="K17" si="3">K15*K16</f>
+        <v>1856</v>
+      </c>
+      <c r="L17" s="19">
+        <f t="shared" ref="L17" si="4">L15*L16</f>
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="H19" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22">
+        <v>100</v>
+      </c>
+      <c r="D20" s="22">
+        <v>105</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22">
+        <v>100</v>
+      </c>
+      <c r="K20" s="22">
+        <v>105</v>
+      </c>
+      <c r="L20" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21">
+        <v>5</v>
+      </c>
+      <c r="D21" s="21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="21">
+        <v>5</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21">
+        <v>5</v>
+      </c>
+      <c r="K21" s="21">
+        <v>5</v>
+      </c>
+      <c r="L21" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22">
+        <f>C20*C21</f>
+        <v>500</v>
+      </c>
+      <c r="D22" s="22">
+        <f t="shared" ref="D22:E22" si="5">D20*D21</f>
+        <v>525</v>
+      </c>
+      <c r="E22" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22">
+        <f>J20*J21</f>
+        <v>500</v>
+      </c>
+      <c r="K22" s="22">
+        <f t="shared" ref="K22" si="6">K20*K21</f>
+        <v>525</v>
+      </c>
+      <c r="L22" s="22">
+        <f t="shared" ref="L22" si="7">L20*L21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="H24" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12">
+        <v>50</v>
+      </c>
+      <c r="D25" s="12">
+        <v>50</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12">
+        <v>50</v>
+      </c>
+      <c r="K25" s="12">
+        <v>50</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11">
+        <v>4</v>
+      </c>
+      <c r="D26" s="11">
+        <v>4</v>
+      </c>
+      <c r="E26" s="11">
+        <v>4</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11">
+        <v>4</v>
+      </c>
+      <c r="K26" s="11">
+        <v>4</v>
+      </c>
+      <c r="L26" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12">
+        <f>C25*C16*C26</f>
+        <v>400</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" ref="D27:E27" si="8">D25*D16*D26</f>
+        <v>400</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12">
+        <f>J25*J16*J26</f>
+        <v>800</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" ref="K27" si="9">K25*K16*K26</f>
+        <v>800</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" ref="L27" si="10">L25*L16*L26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="H29" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="27">
+        <v>40</v>
+      </c>
+      <c r="D30" s="27">
+        <v>0</v>
+      </c>
+      <c r="E30" s="27">
+        <v>0</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="27">
+        <v>40</v>
+      </c>
+      <c r="K30" s="27">
+        <v>0</v>
+      </c>
+      <c r="L30" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="27">
+        <f>C30*C26</f>
+        <v>160</v>
+      </c>
+      <c r="D31" s="27">
+        <f t="shared" ref="D31:E31" si="11">D30*D26</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="27">
+        <f>J30*J26</f>
+        <v>160</v>
+      </c>
+      <c r="K31" s="27">
+        <f t="shared" ref="K31" si="12">K30*K26</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="27">
+        <f t="shared" ref="L31" si="13">L30*L26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="6">
+        <f>C31+C27+C22+C17</f>
+        <v>1754</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" ref="D33:E33" si="14">D31+D27+D22+D17</f>
+        <v>1853</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="14"/>
+        <v>1810</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="6">
+        <f>J31+J27+J22+J17</f>
+        <v>2848</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" ref="K33:L33" si="15">K31+K27+K22+K17</f>
+        <v>3181</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="15"/>
+        <v>3620</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/excel problems.xlsx
+++ b/excel problems.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="School supplies" sheetId="1" r:id="rId1"/>
     <sheet name="Cat or Dog" sheetId="2" r:id="rId2"/>
     <sheet name="Three Vacations" sheetId="3" r:id="rId3"/>
+    <sheet name="Printer Confusion" sheetId="4" r:id="rId4"/>
+    <sheet name="Cel Phone Bill" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
   <si>
     <t>Ball Point Pens</t>
   </si>
@@ -215,6 +217,57 @@
   <si>
     <t>Car rental per day</t>
   </si>
+  <si>
+    <t xml:space="preserve">Epsilon </t>
+  </si>
+  <si>
+    <t>HV</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Purchase Price</t>
+  </si>
+  <si>
+    <t>Cost of a set of cartdriges</t>
+  </si>
+  <si>
+    <t>Pages cartdriges can print</t>
+  </si>
+  <si>
+    <t>Cost per page</t>
+  </si>
+  <si>
+    <t>Expected pages per day</t>
+  </si>
+  <si>
+    <t>Days in week</t>
+  </si>
+  <si>
+    <t>Weeks in a year</t>
+  </si>
+  <si>
+    <t>Total pages in a year</t>
+  </si>
+  <si>
+    <t>Pages per year</t>
+  </si>
+  <si>
+    <t>Printing costs per year</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Total Printing cost</t>
+  </si>
+  <si>
+    <t>Total Costs</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
 </sst>
 </file>
 
@@ -246,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +354,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -314,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -343,6 +402,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +460,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -490,7 +549,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -555,11 +613,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1431297280"/>
-        <c:axId val="-1431293472"/>
+        <c:axId val="684717024"/>
+        <c:axId val="684718112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1431297280"/>
+        <c:axId val="684717024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -602,7 +660,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1431293472"/>
+        <c:crossAx val="684718112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -610,7 +668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1431293472"/>
+        <c:axId val="684718112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +719,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1431297280"/>
+        <c:crossAx val="684717024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -769,7 +827,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -884,7 +941,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -949,11 +1005,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1431300544"/>
-        <c:axId val="-1431295104"/>
+        <c:axId val="684711584"/>
+        <c:axId val="684712672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1431300544"/>
+        <c:axId val="684711584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,7 +1052,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1431295104"/>
+        <c:crossAx val="684712672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1004,7 +1060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1431295104"/>
+        <c:axId val="684712672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1111,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1431300544"/>
+        <c:crossAx val="684711584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1178,7 +1234,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1238,11 +1293,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1431296192"/>
-        <c:axId val="-1431292384"/>
+        <c:axId val="684715392"/>
+        <c:axId val="684714848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1431296192"/>
+        <c:axId val="684715392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1340,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1431292384"/>
+        <c:crossAx val="684714848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1293,7 +1348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1431292384"/>
+        <c:axId val="684714848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,7 +1399,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1431296192"/>
+        <c:crossAx val="684715392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1589,11 +1644,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1484612368"/>
-        <c:axId val="-1484614000"/>
+        <c:axId val="684719744"/>
+        <c:axId val="684717568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1484612368"/>
+        <c:axId val="684719744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1691,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1484614000"/>
+        <c:crossAx val="684717568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1644,7 +1699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1484614000"/>
+        <c:axId val="684717568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,7 +1723,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1484612368"/>
+        <c:crossAx val="684719744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1913,11 +1968,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1484604208"/>
-        <c:axId val="-1484603120"/>
+        <c:axId val="684721376"/>
+        <c:axId val="684721920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1484604208"/>
+        <c:axId val="684721376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,7 +2015,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1484603120"/>
+        <c:crossAx val="684721920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1968,7 +2023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1484603120"/>
+        <c:axId val="684721920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,7 +2047,659 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1484604208"/>
+        <c:crossAx val="684721376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Total Costs per printer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> for Susan's case</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Printer Confusion'!$B$18:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Epsilon </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Zero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Printer Confusion'!$B$19:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1252.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>759.29090909090905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="684712128"/>
+        <c:axId val="684722464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="684712128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684722464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="684722464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="684712128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Total Costs per printer for Tim's case</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Printer Confusion'!$H$18:$J$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Epsilon </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Zero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Printer Confusion'!$H$19:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>37740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13346.363636363636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="856187584"/>
+        <c:axId val="856193568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="856187584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="856193568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="856193568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="856187584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2241,6 +2948,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4254,6 +5041,1012 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4921,6 +6714,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -6180,7 +8038,7 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
@@ -6946,4 +8804,469 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="13">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13">
+        <v>90</v>
+      </c>
+      <c r="D2" s="13">
+        <v>370</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="13">
+        <v>40</v>
+      </c>
+      <c r="I2" s="13">
+        <v>90</v>
+      </c>
+      <c r="J2" s="13">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="6">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6">
+        <v>149</v>
+      </c>
+      <c r="D4" s="6">
+        <v>549</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="6">
+        <v>29</v>
+      </c>
+      <c r="I4" s="6">
+        <v>149</v>
+      </c>
+      <c r="J4" s="6">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="4">
+        <v>200</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>11000</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="4">
+        <v>200</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="4">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="6">
+        <f>B4/B5</f>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C6" s="6">
+        <f>C4/C5</f>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <f>D4/D5</f>
+        <v>4.990909090909091E-2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="6">
+        <f>H4/H5</f>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="I6" s="6">
+        <f>I4/I5</f>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="J6" s="6">
+        <f>J4/J5</f>
+        <v>4.990909090909091E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="28">
+        <v>15</v>
+      </c>
+      <c r="C8" s="28">
+        <v>15</v>
+      </c>
+      <c r="D8" s="28">
+        <v>15</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="28">
+        <v>500</v>
+      </c>
+      <c r="I8" s="28">
+        <v>500</v>
+      </c>
+      <c r="J8" s="28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="28">
+        <v>5</v>
+      </c>
+      <c r="C9" s="28">
+        <v>5</v>
+      </c>
+      <c r="D9" s="28">
+        <v>5</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="28">
+        <v>5</v>
+      </c>
+      <c r="I9" s="28">
+        <v>5</v>
+      </c>
+      <c r="J9" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="28">
+        <v>52</v>
+      </c>
+      <c r="C10" s="28">
+        <v>52</v>
+      </c>
+      <c r="D10" s="28">
+        <v>52</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="28">
+        <v>52</v>
+      </c>
+      <c r="I10" s="28">
+        <v>52</v>
+      </c>
+      <c r="J10" s="28">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="28">
+        <f>B8*B9*B10</f>
+        <v>3900</v>
+      </c>
+      <c r="C11" s="28">
+        <f t="shared" ref="C11:D11" si="0">C8*C9*C10</f>
+        <v>3900</v>
+      </c>
+      <c r="D11" s="28">
+        <f t="shared" si="0"/>
+        <v>3900</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="28">
+        <f>H8*H9*H10</f>
+        <v>130000</v>
+      </c>
+      <c r="I11" s="28">
+        <f t="shared" ref="I11" si="1">I8*I9*I10</f>
+        <v>130000</v>
+      </c>
+      <c r="J11" s="28">
+        <f t="shared" ref="J11" si="2">J8*J9*J10</f>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="21">
+        <f>B11</f>
+        <v>3900</v>
+      </c>
+      <c r="C13" s="21">
+        <f t="shared" ref="C13:D13" si="3">C11</f>
+        <v>3900</v>
+      </c>
+      <c r="D13" s="21">
+        <f t="shared" si="3"/>
+        <v>3900</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="21">
+        <f>H11</f>
+        <v>130000</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" ref="I13:J13" si="4">I11</f>
+        <v>130000</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" si="4"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="22">
+        <f>B13*B6</f>
+        <v>565.5</v>
+      </c>
+      <c r="C14" s="22">
+        <f>C13*C6</f>
+        <v>581.1</v>
+      </c>
+      <c r="D14" s="22">
+        <f>D13*D6</f>
+        <v>194.64545454545456</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="22">
+        <f>H13*H6</f>
+        <v>18850</v>
+      </c>
+      <c r="I14" s="22">
+        <f>I13*I6</f>
+        <v>19370</v>
+      </c>
+      <c r="J14" s="22">
+        <f>J13*J6</f>
+        <v>6488.181818181818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="21">
+        <v>2</v>
+      </c>
+      <c r="C15" s="21">
+        <v>2</v>
+      </c>
+      <c r="D15" s="21">
+        <v>2</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="21">
+        <v>2</v>
+      </c>
+      <c r="I15" s="21">
+        <v>2</v>
+      </c>
+      <c r="J15" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="12">
+        <f>B15*B14</f>
+        <v>1131</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" ref="C17:D17" si="5">C15*C14</f>
+        <v>1162.2</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="5"/>
+        <v>389.29090909090911</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="12">
+        <f>H15*H14</f>
+        <v>37700</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" ref="I17:J17" si="6">I15*I14</f>
+        <v>38740</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="6"/>
+        <v>12976.363636363636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="27">
+        <f>B17+B2</f>
+        <v>1171</v>
+      </c>
+      <c r="C19" s="27">
+        <f>C17+C2</f>
+        <v>1252.2</v>
+      </c>
+      <c r="D19" s="27">
+        <f t="shared" ref="C19:D19" si="7">D17+D2</f>
+        <v>759.29090909090905</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="27">
+        <f>H17+H2</f>
+        <v>37740</v>
+      </c>
+      <c r="I19" s="27">
+        <f>I17+I2</f>
+        <v>38830</v>
+      </c>
+      <c r="J19" s="27">
+        <f t="shared" ref="J19" si="8">J17+J2</f>
+        <v>13346.363636363636</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1" tint="0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel problems.xlsx
+++ b/excel problems.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="School supplies" sheetId="1" r:id="rId1"/>
     <sheet name="Cat or Dog" sheetId="2" r:id="rId2"/>
     <sheet name="Three Vacations" sheetId="3" r:id="rId3"/>
     <sheet name="Printer Confusion" sheetId="4" r:id="rId4"/>
-    <sheet name="Cel Phone Bill" sheetId="5" r:id="rId5"/>
+    <sheet name="Cell Phone Bill" sheetId="5" r:id="rId5"/>
+    <sheet name="Three cars" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="99">
   <si>
     <t>Ball Point Pens</t>
   </si>
@@ -268,6 +269,54 @@
   <si>
     <t>HP</t>
   </si>
+  <si>
+    <t>X-mobile</t>
+  </si>
+  <si>
+    <t>Veritium</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Purchase price per month</t>
+  </si>
+  <si>
+    <t>Taxes and fees</t>
+  </si>
+  <si>
+    <t>Data plan to use</t>
+  </si>
+  <si>
+    <t>Data avalaible</t>
+  </si>
+  <si>
+    <t>Extra data</t>
+  </si>
+  <si>
+    <t>Fees on extra data per month</t>
+  </si>
+  <si>
+    <t>Cell phone rental per month</t>
+  </si>
+  <si>
+    <t>Total fees per month</t>
+  </si>
+  <si>
+    <t>Number of month per year</t>
+  </si>
+  <si>
+    <t>Number of years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Costs </t>
+  </si>
+  <si>
+    <t>Initial Phone purchase</t>
+  </si>
+  <si>
+    <t>Total Fees on data</t>
+  </si>
 </sst>
 </file>
 
@@ -299,7 +348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +409,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -373,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -403,6 +458,8 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,11 +670,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="684717024"/>
-        <c:axId val="684718112"/>
+        <c:axId val="1646557920"/>
+        <c:axId val="1646549760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="684717024"/>
+        <c:axId val="1646557920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +717,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684718112"/>
+        <c:crossAx val="1646549760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -668,7 +725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="684718112"/>
+        <c:axId val="1646549760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +776,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684717024"/>
+        <c:crossAx val="1646557920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1005,11 +1062,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="684711584"/>
-        <c:axId val="684712672"/>
+        <c:axId val="1646554112"/>
+        <c:axId val="1646550304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="684711584"/>
+        <c:axId val="1646554112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1109,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684712672"/>
+        <c:crossAx val="1646550304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1060,7 +1117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="684712672"/>
+        <c:axId val="1646550304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1168,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684711584"/>
+        <c:crossAx val="1646554112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1293,11 +1350,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="684715392"/>
-        <c:axId val="684714848"/>
+        <c:axId val="1646549216"/>
+        <c:axId val="1646556288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="684715392"/>
+        <c:axId val="1646549216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1340,7 +1397,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684714848"/>
+        <c:crossAx val="1646556288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1348,7 +1405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="684714848"/>
+        <c:axId val="1646556288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1456,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684715392"/>
+        <c:crossAx val="1646549216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1488,7 +1545,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1578,7 +1634,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1644,11 +1699,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="684719744"/>
-        <c:axId val="684717568"/>
+        <c:axId val="1646562272"/>
+        <c:axId val="1646559008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="684719744"/>
+        <c:axId val="1646562272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1746,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684717568"/>
+        <c:crossAx val="1646559008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1699,7 +1754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="684717568"/>
+        <c:axId val="1646559008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,7 +1778,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="684719744"/>
+        <c:crossAx val="1646562272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1812,7 +1867,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1902,7 +1956,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1968,11 +2021,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="684721376"/>
-        <c:axId val="684721920"/>
+        <c:axId val="1646560096"/>
+        <c:axId val="1646560640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="684721376"/>
+        <c:axId val="1646560096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,7 +2068,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684721920"/>
+        <c:crossAx val="1646560640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2023,7 +2076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="684721920"/>
+        <c:axId val="1646560640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,7 +2100,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="684721376"/>
+        <c:crossAx val="1646560096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2140,7 +2193,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2230,7 +2282,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2296,11 +2347,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="684712128"/>
-        <c:axId val="684722464"/>
+        <c:axId val="1650120336"/>
+        <c:axId val="1650122512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="684712128"/>
+        <c:axId val="1650120336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,7 +2394,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684722464"/>
+        <c:crossAx val="1650122512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2351,7 +2402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="684722464"/>
+        <c:axId val="1650122512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,7 +2426,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="684712128"/>
+        <c:crossAx val="1650120336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2464,7 +2515,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2554,7 +2604,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2620,11 +2669,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="856187584"/>
-        <c:axId val="856193568"/>
+        <c:axId val="1650124144"/>
+        <c:axId val="1650124688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="856187584"/>
+        <c:axId val="1650124144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2716,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="856193568"/>
+        <c:crossAx val="1650124688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2675,7 +2724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="856193568"/>
+        <c:axId val="1650124688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2699,7 +2748,601 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="856187584"/>
+        <c:crossAx val="1650124144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Total costs  for cell phone bill</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cell Phone Bill'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>X-mobile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veritium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ABC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cell Phone Bill'!$B$19:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13560</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1650121968"/>
+        <c:axId val="1650123056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1650121968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1650123056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1650123056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1650121968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cell Phone Bill'!$H$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>X-mobile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veritium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ABC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cell Phone Bill'!$H$19:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12840</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1727755968"/>
+        <c:axId val="1727761408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1727755968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1727761408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1727761408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1727755968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3028,6 +3671,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6047,6 +6770,1012 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6779,6 +8508,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -9229,7 +11023,7 @@
         <v>1252.2</v>
       </c>
       <c r="D19" s="27">
-        <f t="shared" ref="C19:D19" si="7">D17+D2</f>
+        <f t="shared" ref="D19" si="7">D17+D2</f>
         <v>759.29090909090905</v>
       </c>
       <c r="G19" s="24" t="s">
@@ -9259,11 +11053,417 @@
   <sheetPr>
     <tabColor theme="1" tint="0.249977111117893"/>
   </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>500</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>500</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="6">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6">
+        <v>55</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="6">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6">
+        <v>35</v>
+      </c>
+      <c r="J4" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="4">
+        <f>B7-B8</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:D9" si="0">C7-C8</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="4">
+        <f>H7-H8</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" ref="I9" si="1">I7-I8</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" ref="J9" si="2">J7-J8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="6">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="6">
+        <v>20</v>
+      </c>
+      <c r="I10" s="6">
+        <v>15</v>
+      </c>
+      <c r="J10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B10*B9</f>
+        <v>40</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" ref="C11:D11" si="3">C10*C9</f>
+        <v>30</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="6">
+        <f>H10*H9</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" ref="I11" si="4">I10*I9</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" ref="J11" si="5">J10*J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="6">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="6">
+        <v>30</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="6">
+        <f>B3+B4+B5+B11+B13</f>
+        <v>98.5</v>
+      </c>
+      <c r="C15" s="6">
+        <f>C3+C4+C5+C11+C13</f>
+        <v>565</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" ref="C15:D15" si="6">D3+D4+D5+D11+D13</f>
+        <v>65</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="6">
+        <f>H3+H4+H5+H11+H13</f>
+        <v>58.5</v>
+      </c>
+      <c r="I15" s="6">
+        <f>I3+I4+I5+I11+I13</f>
+        <v>535</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" ref="J15" si="7">J3+J4+J5+J11+J13</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="4">
+        <v>12</v>
+      </c>
+      <c r="I16" s="4">
+        <v>12</v>
+      </c>
+      <c r="J16" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="30">
+        <f>B17*B16*B15</f>
+        <v>2364</v>
+      </c>
+      <c r="C19" s="30">
+        <f t="shared" ref="C19:D19" si="8">C17*C16*C15</f>
+        <v>13560</v>
+      </c>
+      <c r="D19" s="30">
+        <f t="shared" si="8"/>
+        <v>1560</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="30">
+        <f>H17*H16*H15</f>
+        <v>1404</v>
+      </c>
+      <c r="I19" s="30">
+        <f t="shared" ref="I19:J19" si="9">I17*I16*I15</f>
+        <v>12840</v>
+      </c>
+      <c r="J19" s="30">
+        <f t="shared" si="9"/>
+        <v>1320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/excel problems.xlsx
+++ b/excel problems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="121">
   <si>
     <t>Ball Point Pens</t>
   </si>
@@ -317,6 +317,72 @@
   <si>
     <t>Total Fees on data</t>
   </si>
+  <si>
+    <t>Sparks</t>
+  </si>
+  <si>
+    <t>Mustang</t>
+  </si>
+  <si>
+    <t>Escalade</t>
+  </si>
+  <si>
+    <t>Initial Costs</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Yearly Costs</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Licence</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Gas cost Calculation</t>
+  </si>
+  <si>
+    <t>Miles per year driven</t>
+  </si>
+  <si>
+    <t>MPG</t>
+  </si>
+  <si>
+    <t>Price per gal of gas</t>
+  </si>
+  <si>
+    <t>Total Annual Gas Purchase</t>
+  </si>
+  <si>
+    <t>Total Annual Costs(Ins+Gas+Lic)</t>
+  </si>
+  <si>
+    <t>Miles to drive each year</t>
+  </si>
+  <si>
+    <t>Susan's goal for maximum miles</t>
+  </si>
+  <si>
+    <t>Total Life of the car(years)</t>
+  </si>
+  <si>
+    <t>Annual Costs X years of life</t>
+  </si>
+  <si>
+    <t>Total Lifetime costs</t>
+  </si>
+  <si>
+    <t>Avg Cost/Year</t>
+  </si>
+  <si>
+    <t>Tim's goal for maximum miles</t>
+  </si>
 </sst>
 </file>
 
@@ -325,7 +391,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,8 +413,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +488,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -425,10 +510,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -460,9 +546,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -670,11 +762,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1646557920"/>
-        <c:axId val="1646549760"/>
+        <c:axId val="-1789952688"/>
+        <c:axId val="-1789943984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1646557920"/>
+        <c:axId val="-1789952688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +809,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646549760"/>
+        <c:crossAx val="-1789943984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -725,7 +817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1646549760"/>
+        <c:axId val="-1789943984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +868,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646557920"/>
+        <c:crossAx val="-1789952688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -799,6 +891,596 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Three cars'!$B$27:$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sparks</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mustang</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Escalade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Three cars'!$B$28:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>385909.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>728743.78947368416</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>839644.70588235289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="-1628512816"/>
+        <c:axId val="-1628518800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1628512816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1628518800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1628518800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1628512816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Three cars'!$H$27:$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sparks</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mustang</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Escalade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Three cars'!$H$28:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>540272.88000000012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1020241.3052631579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1175502.588235294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="-1628509008"/>
+        <c:axId val="-1628515536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1628509008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1628515536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1628515536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-1009]* #\ ##0.00_-;\-[$$-1009]* #\ ##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1628509008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1062,11 +1744,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1646554112"/>
-        <c:axId val="1646550304"/>
+        <c:axId val="-1789958128"/>
+        <c:axId val="-1789951600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1646554112"/>
+        <c:axId val="-1789958128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1791,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646550304"/>
+        <c:crossAx val="-1789951600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1117,7 +1799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1646550304"/>
+        <c:axId val="-1789951600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,7 +1850,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646554112"/>
+        <c:crossAx val="-1789958128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1350,11 +2032,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1646549216"/>
-        <c:axId val="1646556288"/>
+        <c:axId val="-1789948336"/>
+        <c:axId val="-1789956496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1646549216"/>
+        <c:axId val="-1789948336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +2079,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646556288"/>
+        <c:crossAx val="-1789956496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1405,7 +2087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1646556288"/>
+        <c:axId val="-1789956496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,7 +2138,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646549216"/>
+        <c:crossAx val="-1789948336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1699,11 +2381,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1646562272"/>
-        <c:axId val="1646559008"/>
+        <c:axId val="-1789947792"/>
+        <c:axId val="-1789942896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1646562272"/>
+        <c:axId val="-1789947792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +2428,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646559008"/>
+        <c:crossAx val="-1789942896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1754,7 +2436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1646559008"/>
+        <c:axId val="-1789942896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1778,7 +2460,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1646562272"/>
+        <c:crossAx val="-1789947792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2021,11 +2703,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1646560096"/>
-        <c:axId val="1646560640"/>
+        <c:axId val="-1789957584"/>
+        <c:axId val="-1789952144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1646560096"/>
+        <c:axId val="-1789957584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,7 +2750,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646560640"/>
+        <c:crossAx val="-1789952144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2076,7 +2758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1646560640"/>
+        <c:axId val="-1789952144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,7 +2782,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1646560096"/>
+        <c:crossAx val="-1789957584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2347,11 +3029,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1650120336"/>
-        <c:axId val="1650122512"/>
+        <c:axId val="-1674387696"/>
+        <c:axId val="-1674382256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1650120336"/>
+        <c:axId val="-1674387696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,7 +3076,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1650122512"/>
+        <c:crossAx val="-1674382256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2402,7 +3084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1650122512"/>
+        <c:axId val="-1674382256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,7 +3108,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1650120336"/>
+        <c:crossAx val="-1674387696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2669,11 +3351,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1650124144"/>
-        <c:axId val="1650124688"/>
+        <c:axId val="-1674376816"/>
+        <c:axId val="-1674375184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1650124144"/>
+        <c:axId val="-1674376816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,7 +3398,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1650124688"/>
+        <c:crossAx val="-1674375184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2724,7 +3406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1650124688"/>
+        <c:axId val="-1674375184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,7 +3430,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1650124144"/>
+        <c:crossAx val="-1674376816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2837,7 +3519,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2929,7 +3610,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2995,11 +3675,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1650121968"/>
-        <c:axId val="1650123056"/>
+        <c:axId val="-1674388240"/>
+        <c:axId val="-1674386608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1650121968"/>
+        <c:axId val="-1674388240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3042,7 +3722,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1650123056"/>
+        <c:crossAx val="-1674386608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3050,7 +3730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1650123056"/>
+        <c:axId val="-1674386608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3074,7 +3754,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1650121968"/>
+        <c:crossAx val="-1674388240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3197,7 +3877,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3263,11 +3942,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1727755968"/>
-        <c:axId val="1727761408"/>
+        <c:axId val="-1674386064"/>
+        <c:axId val="-1674373552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1727755968"/>
+        <c:axId val="-1674386064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3310,7 +3989,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1727761408"/>
+        <c:crossAx val="-1674373552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3318,7 +3997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1727761408"/>
+        <c:axId val="-1674373552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3342,7 +4021,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1727755968"/>
+        <c:crossAx val="-1674386064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3392,6 +4071,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4254,6 +5013,1000 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -8573,6 +10326,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -11350,7 +13168,7 @@
         <v>565</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" ref="C15:D15" si="6">D3+D4+D5+D11+D13</f>
+        <f t="shared" ref="D15" si="6">D3+D4+D5+D11+D13</f>
         <v>65</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -11461,12 +13279,562 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="I3" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="J3" s="35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="6">
+        <v>14500</v>
+      </c>
+      <c r="C4" s="6">
+        <v>31000</v>
+      </c>
+      <c r="D4" s="6">
+        <v>72000</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="6">
+        <v>14500</v>
+      </c>
+      <c r="I4" s="6">
+        <v>31000</v>
+      </c>
+      <c r="J4" s="6">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1450</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3100</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7200</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1450</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3100</v>
+      </c>
+      <c r="J5" s="6">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="G7" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="22">
+        <v>1500</v>
+      </c>
+      <c r="C8" s="22">
+        <v>2500</v>
+      </c>
+      <c r="D8" s="22">
+        <v>3100</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1500</v>
+      </c>
+      <c r="I8" s="22">
+        <v>2500</v>
+      </c>
+      <c r="J8" s="22">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="22">
+        <v>210</v>
+      </c>
+      <c r="C9" s="22">
+        <v>300</v>
+      </c>
+      <c r="D9" s="22">
+        <v>450</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="22">
+        <v>210</v>
+      </c>
+      <c r="I9" s="22">
+        <v>300</v>
+      </c>
+      <c r="J9" s="22">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="G10" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="9">
+        <v>30000</v>
+      </c>
+      <c r="C13" s="9">
+        <v>30000</v>
+      </c>
+      <c r="D13" s="9">
+        <v>30000</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I13" s="9">
+        <v>30000</v>
+      </c>
+      <c r="J13" s="9">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="9">
+        <v>35</v>
+      </c>
+      <c r="C14" s="9">
+        <v>19</v>
+      </c>
+      <c r="D14" s="9">
+        <v>17</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="9">
+        <v>35</v>
+      </c>
+      <c r="I14" s="9">
+        <v>19</v>
+      </c>
+      <c r="J14" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="14">
+        <v>398</v>
+      </c>
+      <c r="C15" s="14">
+        <v>408</v>
+      </c>
+      <c r="D15" s="14">
+        <v>418</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="14">
+        <v>398</v>
+      </c>
+      <c r="I15" s="14">
+        <v>408</v>
+      </c>
+      <c r="J15" s="14">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="14">
+        <f>B15*B13/B14</f>
+        <v>341142.85714285716</v>
+      </c>
+      <c r="C16" s="14">
+        <f t="shared" ref="C16:D16" si="0">C15*C13/C14</f>
+        <v>644210.52631578944</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="0"/>
+        <v>737647.0588235294</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="14">
+        <f>H15*H13/H14</f>
+        <v>341142.85714285716</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" ref="I16" si="1">I15*I13/I14</f>
+        <v>644210.52631578944</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" ref="J16" si="2">J15*J13/J14</f>
+        <v>737647.0588235294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="33">
+        <f>B8+B9+B16</f>
+        <v>342852.85714285716</v>
+      </c>
+      <c r="C18" s="33">
+        <f t="shared" ref="C18:D18" si="3">C8+C9+C16</f>
+        <v>647010.52631578944</v>
+      </c>
+      <c r="D18" s="33">
+        <f t="shared" si="3"/>
+        <v>741197.0588235294</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="33">
+        <f>H8+H9+H16</f>
+        <v>342852.85714285716</v>
+      </c>
+      <c r="I18" s="33">
+        <f t="shared" ref="I18:J18" si="4">I8+I9+I16</f>
+        <v>647010.52631578944</v>
+      </c>
+      <c r="J18" s="33">
+        <f t="shared" si="4"/>
+        <v>741197.0588235294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="32">
+        <v>250000</v>
+      </c>
+      <c r="C20" s="32">
+        <v>250000</v>
+      </c>
+      <c r="D20" s="32">
+        <v>250000</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="32">
+        <v>250000</v>
+      </c>
+      <c r="I20" s="32">
+        <v>250000</v>
+      </c>
+      <c r="J20" s="32">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="32">
+        <v>30000</v>
+      </c>
+      <c r="C21" s="32">
+        <v>30000</v>
+      </c>
+      <c r="D21" s="32">
+        <v>30000</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="32">
+        <v>30000</v>
+      </c>
+      <c r="I21" s="32">
+        <v>30000</v>
+      </c>
+      <c r="J21" s="32">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="34">
+        <f>B20/B21</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="C22" s="34">
+        <f t="shared" ref="C22:D22" si="5">C20/C21</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="D22" s="34">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="34">
+        <f>H20/H21</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="I22" s="34">
+        <f t="shared" ref="I22" si="6">I20/I21</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="J22" s="34">
+        <f t="shared" ref="J22" si="7">J20/J21</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="33">
+        <f>B18*B22</f>
+        <v>2857107.1428571432</v>
+      </c>
+      <c r="C24" s="33">
+        <f t="shared" ref="C24:D24" si="8">C18*C22</f>
+        <v>5391754.3859649124</v>
+      </c>
+      <c r="D24" s="33">
+        <f t="shared" si="8"/>
+        <v>6176642.1568627451</v>
+      </c>
+      <c r="G24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="33">
+        <f>H18*H22</f>
+        <v>2857107.1428571432</v>
+      </c>
+      <c r="I24" s="33">
+        <f t="shared" ref="I24:J24" si="9">I18*I22</f>
+        <v>5391754.3859649124</v>
+      </c>
+      <c r="J24" s="33">
+        <f t="shared" si="9"/>
+        <v>6176642.1568627451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="33">
+        <f>B18+B4+B5+B24</f>
+        <v>3215910.0000000005</v>
+      </c>
+      <c r="C26" s="33">
+        <f t="shared" ref="C26:D26" si="10">C18+C4+C5+C24</f>
+        <v>6072864.912280702</v>
+      </c>
+      <c r="D26" s="33">
+        <f t="shared" si="10"/>
+        <v>6997039.2156862747</v>
+      </c>
+      <c r="G26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="33">
+        <f>(H18+H4+H5+H24)*H3+(H24+H18+H5+H4)</f>
+        <v>4502274.0000000009</v>
+      </c>
+      <c r="I26" s="33">
+        <f t="shared" ref="I26:J26" si="11">(I18+I4+I5+I24)*I3+(I24+I18+I5+I4)</f>
+        <v>8502010.8771929834</v>
+      </c>
+      <c r="J26" s="33">
+        <f t="shared" si="11"/>
+        <v>9795854.9019607846</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="18">
+        <f>B26/B22</f>
+        <v>385909.2</v>
+      </c>
+      <c r="C28" s="18">
+        <f t="shared" ref="C28:D28" si="12">C26/C22</f>
+        <v>728743.78947368416</v>
+      </c>
+      <c r="D28" s="18">
+        <f t="shared" si="12"/>
+        <v>839644.70588235289</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="18">
+        <f>H26/H22</f>
+        <v>540272.88000000012</v>
+      </c>
+      <c r="I28" s="18">
+        <f t="shared" ref="I28:J28" si="13">I26/I22</f>
+        <v>1020241.3052631579</v>
+      </c>
+      <c r="J28" s="18">
+        <f t="shared" si="13"/>
+        <v>1175502.588235294</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>